--- a/biology/Botanique/Tchaharbagh/Tchaharbagh.xlsx
+++ b/biology/Botanique/Tchaharbagh/Tchaharbagh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un tchaharbagh (du persan چهارباغ / čahârbâġ, composé de چهار [« quatre »] et de باغ [« jardin »]) est un style de jardin persan, divisé en quatre parties par un plan en croix.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tchaharbagh tire son origine de la Perse achéménide, notamment « les quatre jardins » de l'ensemble royal de Pasargades sous Cyrus le Grand. Il est ensuite passé dans le monde hellénistique (aux environs du IVe siècle av. J.-C.), puis dans le monde romain (au Ier siècle av. J.-C.). Au Moyen Âge, les ecclésiastiques chrétiens férus d'auteurs antiques (Dioscoride, Pline l'Ancien...), reprennent des éléments du jardin romain (et donc du jardin persan), notamment la structure du chahar-bagh qui symbolise pour eux la croix du Christ. Dans le monde musulman apparait une forme particulière de chahar-bagh : concrètement un ensemble de deux tchahar-bagh côte à côte, soit huit parties représentant les huit portes du paradis, le tout divisé par quatre canaux, représentant les quatre fleuves du paradis[1]. À la renaissance, les jardins antiques redevenant à la mode, on retrouve le plan en croix typique dans les jardins à l'italienne et les jardins à la française.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tchaharbagh tire son origine de la Perse achéménide, notamment « les quatre jardins » de l'ensemble royal de Pasargades sous Cyrus le Grand. Il est ensuite passé dans le monde hellénistique (aux environs du IVe siècle av. J.-C.), puis dans le monde romain (au Ier siècle av. J.-C.). Au Moyen Âge, les ecclésiastiques chrétiens férus d'auteurs antiques (Dioscoride, Pline l'Ancien...), reprennent des éléments du jardin romain (et donc du jardin persan), notamment la structure du chahar-bagh qui symbolise pour eux la croix du Christ. Dans le monde musulman apparait une forme particulière de chahar-bagh : concrètement un ensemble de deux tchahar-bagh côte à côte, soit huit parties représentant les huit portes du paradis, le tout divisé par quatre canaux, représentant les quatre fleuves du paradis. À la renaissance, les jardins antiques redevenant à la mode, on retrouve le plan en croix typique dans les jardins à l'italienne et les jardins à la française.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Conception</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tchaharbagh est divisé par un plan en croix, de type croix latine (avec un axe plus long que les autres) ou de type croix grecque (les 4 axes étant de même longueur). On trouve aussi souvent un type de tchahar-bagh de type croix de saint André.
 Ce plan en croix peut être marqué par 4 canaux ou 4 sentiers, avec souvent au centre une fontaine ou un puits.
